--- a/tests/A02_pixell_test_plan_chequing_account.xlsx
+++ b/tests/A02_pixell_test_plan_chequing_account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>#VALUE!</t>
   </si>
@@ -55,31 +55,105 @@
     <t>Attributes are set to input values (ensure to test for superclass and subclass attributes)</t>
   </si>
   <si>
+    <t>test_account = ChequingAccount(1, 10, 500.0, date.today(), -200, 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.assertEqual(test_account._BankAccount__balance, 500.0)
+        self.assertEqual(
+            test_account._ChequingAccount__overdraft_limit, -200.0)
+        self.assertEqual(test_account._ChequingAccount__overdraft_rate, 0.1)</t>
+  </si>
+  <si>
     <t>overdraft limit has invalid type.</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = ChequingAccount(1, 10, 500.0, date.today(), "hi", 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account._ChequingAccount__overdraft_limit
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
+    <t>expected = -100</t>
+  </si>
+  <si>
     <t>overdraft rate has invalid type.</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = ChequingAccount(1, 10, 500.0, date.today(), -100, "hi")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account._ChequingAccount__overdraft_rate
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = .05</t>
+  </si>
+  <si>
     <t>date created has invalid type</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = ChequingAccount(1, 10, 500.0, "hi", -100, .05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account._date_created
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
+    <t>expected = date.today()</t>
+  </si>
+  <si>
     <t>get_service_charges</t>
   </si>
   <si>
     <t>balance greater than overdraft limit</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = ChequingAccount(1, 10, -99, date.today(), -100, .05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account.get_service_charges()
+        self.assertEqual(round(expected, 2), actual)</t>
+  </si>
+  <si>
+    <t>expected = .5</t>
+  </si>
+  <si>
     <t>balance less than overdraft limit</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = ChequingAccount(1, 10, -101, date.today(), -100, .05)</t>
+  </si>
+  <si>
+    <t>expected = .5+1*.05</t>
+  </si>
+  <si>
     <t>balance equal to overdraft limit</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = ChequingAccount(1, 10, -100, date.today(), -100, .05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account.get_service_charges()
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
     <t>__str__</t>
   </si>
   <si>
     <t>appropriate value returned based on attribute values.</t>
+  </si>
+  <si>
+    <t>test_account = ChequingAccount(1, 10, -99, date.today(), -100, -.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = str(test_account)
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = (f"\nAccount Number: 1  Balance: -99.00$\n"
+                    f"Overdraft Limit: -100.00 Overdraft Rate: 5.00%  Account Type: Chequing"
+                    )</t>
   </si>
   <si>
     <t>Add more rows as necessary</t>
@@ -90,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +175,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -151,7 +231,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -418,85 +505,85 @@
   <cellXfs count="30">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,11 +919,11 @@
     <col min="3" max="3" style="29" width="22.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="29" width="32.71928571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="29" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="29" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="29" width="27.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="29" width="48.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -845,7 +932,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="35.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -858,7 +945,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -912,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="70.5" customFormat="1" s="16">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
@@ -923,11 +1010,15 @@
       <c r="D7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42.75" customFormat="1" s="16">
       <c r="A8" s="17"/>
       <c r="B8" s="21">
         <v>2</v>
@@ -936,13 +1027,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+        <v>15</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A9" s="17"/>
       <c r="B9" s="18">
         <v>3</v>
@@ -951,13 +1048,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51.75" customFormat="1" s="16">
       <c r="A10" s="17"/>
       <c r="B10" s="18">
         <v>4</v>
@@ -966,26 +1069,38 @@
         <v>11</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+        <v>23</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A11" s="17"/>
       <c r="B11" s="21">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A12" s="17"/>
@@ -993,14 +1108,20 @@
         <v>6</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A13" s="17"/>
@@ -1008,14 +1129,20 @@
         <v>7</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="58.5" customFormat="1" s="16">
       <c r="A14" s="17"/>
@@ -1023,14 +1150,20 @@
         <v>8</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A15" s="17"/>
@@ -1220,7 +1353,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
